--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-dificil-regular.xlsx
@@ -3803,10 +3803,10 @@
         <v>3.49</v>
       </c>
       <c r="H2">
-        <v>1.03</v>
+        <v>1.347</v>
       </c>
       <c r="I2">
-        <v>0.304</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3832,10 +3832,10 @@
         <v>1.859</v>
       </c>
       <c r="H3">
-        <v>0.597</v>
+        <v>0.516</v>
       </c>
       <c r="I3">
-        <v>0.551</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3861,10 +3861,10 @@
         <v>0.501</v>
       </c>
       <c r="H4">
-        <v>0.12</v>
+        <v>0.112</v>
       </c>
       <c r="I4">
-        <v>0.905</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3890,10 +3890,10 @@
         <v>-6.442</v>
       </c>
       <c r="H5">
-        <v>-1.396</v>
+        <v>-0.916</v>
       </c>
       <c r="I5">
-        <v>0.165</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3919,10 +3919,10 @@
         <v>-8.372999999999999</v>
       </c>
       <c r="H6">
-        <v>-1.738</v>
+        <v>-1.492</v>
       </c>
       <c r="I6">
-        <v>0.08400000000000001</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3948,10 +3948,10 @@
         <v>-2.585</v>
       </c>
       <c r="H7">
-        <v>-0.531</v>
+        <v>-0.422</v>
       </c>
       <c r="I7">
-        <v>0.596</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3977,10 +3977,10 @@
         <v>-2.45</v>
       </c>
       <c r="H8">
-        <v>-1.559</v>
+        <v>-1.76</v>
       </c>
       <c r="I8">
-        <v>0.121</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4006,10 +4006,10 @@
         <v>-1.632</v>
       </c>
       <c r="H9">
-        <v>-1.081</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="I9">
-        <v>0.281</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4035,10 +4035,10 @@
         <v>-0.872</v>
       </c>
       <c r="H10">
-        <v>-0.474</v>
+        <v>-0.48</v>
       </c>
       <c r="I10">
-        <v>0.636</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4064,10 +4064,10 @@
         <v>3.288</v>
       </c>
       <c r="H11">
-        <v>1.688</v>
+        <v>1.326</v>
       </c>
       <c r="I11">
-        <v>0.093</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4093,10 +4093,10 @@
         <v>3.622</v>
       </c>
       <c r="H12">
-        <v>1.785</v>
+        <v>1.673</v>
       </c>
       <c r="I12">
-        <v>0.076</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4122,10 +4122,10 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="H13">
-        <v>0.397</v>
+        <v>0.315</v>
       </c>
       <c r="I13">
-        <v>0.6919999999999999</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4151,10 +4151,10 @@
         <v>-0.011</v>
       </c>
       <c r="H14">
-        <v>-0.404</v>
+        <v>-0.424</v>
       </c>
       <c r="I14">
-        <v>0.6870000000000001</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4180,10 +4180,10 @@
         <v>-0.038</v>
       </c>
       <c r="H15">
-        <v>-1.424</v>
+        <v>-1.32</v>
       </c>
       <c r="I15">
-        <v>0.156</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4209,10 +4209,10 @@
         <v>-0.115</v>
       </c>
       <c r="H16">
-        <v>-2.965</v>
+        <v>-2.858</v>
       </c>
       <c r="I16">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4238,10 +4238,10 @@
         <v>-0.022</v>
       </c>
       <c r="H17">
-        <v>-0.436</v>
+        <v>-0.452</v>
       </c>
       <c r="I17">
-        <v>0.664</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4267,10 +4267,10 @@
         <v>-0.081</v>
       </c>
       <c r="H18">
-        <v>-1.497</v>
+        <v>-1.377</v>
       </c>
       <c r="I18">
-        <v>0.136</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4296,10 +4296,10 @@
         <v>-0.013</v>
       </c>
       <c r="H19">
-        <v>-0.242</v>
+        <v>-0.218</v>
       </c>
       <c r="I19">
-        <v>0.8090000000000001</v>
+        <v>0.827</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4392,10 @@
         <v>8.58</v>
       </c>
       <c r="J2">
-        <v>1.964</v>
+        <v>1.71</v>
       </c>
       <c r="K2">
-        <v>0.052</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4427,10 +4427,10 @@
         <v>-0.635</v>
       </c>
       <c r="J3">
-        <v>-0.165</v>
+        <v>-0.192</v>
       </c>
       <c r="K3">
-        <v>0.869</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4462,7 +4462,7 @@
         <v>-0.013</v>
       </c>
       <c r="J4">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="K4">
         <v>0.998</v>
@@ -4497,10 +4497,10 @@
         <v>-4.679</v>
       </c>
       <c r="J5">
-        <v>-0.742</v>
+        <v>-0.903</v>
       </c>
       <c r="K5">
-        <v>0.46</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4532,10 +4532,10 @@
         <v>-6.637</v>
       </c>
       <c r="J6">
-        <v>-1.013</v>
+        <v>-0.9</v>
       </c>
       <c r="K6">
-        <v>0.313</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4567,10 +4567,10 @@
         <v>-4.017</v>
       </c>
       <c r="J7">
-        <v>-0.577</v>
+        <v>-0.474</v>
       </c>
       <c r="K7">
-        <v>0.5649999999999999</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4602,10 +4602,10 @@
         <v>-5.151</v>
       </c>
       <c r="J8">
-        <v>-2.451</v>
+        <v>-1.998</v>
       </c>
       <c r="K8">
-        <v>0.016</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4637,10 +4637,10 @@
         <v>0.047</v>
       </c>
       <c r="J9">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="K9">
-        <v>0.982</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4672,10 +4672,10 @@
         <v>-0.21</v>
       </c>
       <c r="J10">
-        <v>-0.081</v>
+        <v>-0.095</v>
       </c>
       <c r="K10">
-        <v>0.9350000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4707,10 +4707,10 @@
         <v>2.546</v>
       </c>
       <c r="J11">
-        <v>0.931</v>
+        <v>1.208</v>
       </c>
       <c r="K11">
-        <v>0.354</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4742,10 +4742,10 @@
         <v>2.862</v>
       </c>
       <c r="J12">
-        <v>1.009</v>
+        <v>0.824</v>
       </c>
       <c r="K12">
-        <v>0.315</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4777,10 +4777,10 @@
         <v>1.811</v>
       </c>
       <c r="J13">
-        <v>0.607</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.545</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4812,10 +4812,10 @@
         <v>0.033</v>
       </c>
       <c r="J14">
-        <v>0.889</v>
+        <v>1.235</v>
       </c>
       <c r="K14">
-        <v>0.376</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4847,10 +4847,10 @@
         <v>0.011</v>
       </c>
       <c r="J15">
-        <v>0.286</v>
+        <v>0.342</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4882,10 +4882,10 @@
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>0.217</v>
+        <v>0.199</v>
       </c>
       <c r="K16">
-        <v>0.829</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4917,10 +4917,10 @@
         <v>-0.037</v>
       </c>
       <c r="J17">
-        <v>-0.542</v>
+        <v>-0.496</v>
       </c>
       <c r="K17">
-        <v>0.589</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4952,10 +4952,10 @@
         <v>-0.138</v>
       </c>
       <c r="J18">
-        <v>-1.864</v>
+        <v>-1.994</v>
       </c>
       <c r="K18">
-        <v>0.065</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4987,10 +4987,10 @@
         <v>-0.004</v>
       </c>
       <c r="J19">
-        <v>-0.05</v>
+        <v>-0.052</v>
       </c>
       <c r="K19">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
     </row>
   </sheetData>
@@ -5083,10 +5083,10 @@
         <v>9.593999999999999</v>
       </c>
       <c r="J2">
-        <v>2.004</v>
+        <v>2.427</v>
       </c>
       <c r="K2">
-        <v>0.048</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5118,10 +5118,10 @@
         <v>6.764</v>
       </c>
       <c r="J3">
-        <v>1.62</v>
+        <v>1.621</v>
       </c>
       <c r="K3">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5153,10 +5153,10 @@
         <v>0.163</v>
       </c>
       <c r="J4">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="K4">
-        <v>0.979</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5188,10 +5188,10 @@
         <v>-5.909</v>
       </c>
       <c r="J5">
-        <v>-0.855</v>
+        <v>-1.059</v>
       </c>
       <c r="K5">
-        <v>0.395</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5223,10 +5223,10 @@
         <v>-11.07</v>
       </c>
       <c r="J6">
-        <v>-1.551</v>
+        <v>-1.375</v>
       </c>
       <c r="K6">
-        <v>0.124</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5258,10 +5258,10 @@
         <v>-9.395</v>
       </c>
       <c r="J7">
-        <v>-1.237</v>
+        <v>-1.065</v>
       </c>
       <c r="K7">
-        <v>0.219</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5293,10 +5293,10 @@
         <v>-5.167</v>
       </c>
       <c r="J8">
-        <v>-2.232</v>
+        <v>-2.228</v>
       </c>
       <c r="K8">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5328,10 +5328,10 @@
         <v>-3.717</v>
       </c>
       <c r="J9">
-        <v>-1.636</v>
+        <v>-1.742</v>
       </c>
       <c r="K9">
-        <v>0.105</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5398,10 +5398,10 @@
         <v>3.558</v>
       </c>
       <c r="J11">
-        <v>1.19</v>
+        <v>1.524</v>
       </c>
       <c r="K11">
-        <v>0.237</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5433,10 +5433,10 @@
         <v>5.092</v>
       </c>
       <c r="J12">
-        <v>1.65</v>
+        <v>1.329</v>
       </c>
       <c r="K12">
-        <v>0.102</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5468,10 +5468,10 @@
         <v>4.032</v>
       </c>
       <c r="J13">
-        <v>1.239</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>0.218</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5503,10 +5503,10 @@
         <v>0.024</v>
       </c>
       <c r="J14">
-        <v>0.603</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K14">
-        <v>0.548</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5538,10 +5538,10 @@
         <v>-0.016</v>
       </c>
       <c r="J15">
-        <v>-0.396</v>
+        <v>-0.319</v>
       </c>
       <c r="K15">
-        <v>0.6929999999999999</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5573,10 +5573,10 @@
         <v>-0.017</v>
       </c>
       <c r="J16">
-        <v>-0.333</v>
+        <v>-0.258</v>
       </c>
       <c r="K16">
-        <v>0.74</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5608,10 +5608,10 @@
         <v>-0.081</v>
       </c>
       <c r="J17">
-        <v>-1.085</v>
+        <v>-0.948</v>
       </c>
       <c r="K17">
-        <v>0.28</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5643,10 +5643,10 @@
         <v>-0.142</v>
       </c>
       <c r="J18">
-        <v>-1.743</v>
+        <v>-1.672</v>
       </c>
       <c r="K18">
-        <v>0.08400000000000001</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5678,10 +5678,10 @@
         <v>0.067</v>
       </c>
       <c r="J19">
-        <v>0.848</v>
+        <v>0.805</v>
       </c>
       <c r="K19">
-        <v>0.398</v>
+        <v>0.421</v>
       </c>
     </row>
   </sheetData>
@@ -5781,10 +5781,10 @@
         <v>6.024</v>
       </c>
       <c r="K2">
-        <v>1.104</v>
+        <v>1.404</v>
       </c>
       <c r="L2">
-        <v>0.272</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5819,10 +5819,10 @@
         <v>5.884</v>
       </c>
       <c r="K3">
-        <v>1.246</v>
+        <v>1.502</v>
       </c>
       <c r="L3">
-        <v>0.215</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5857,10 +5857,10 @@
         <v>-2.144</v>
       </c>
       <c r="K4">
-        <v>-0.307</v>
+        <v>-0.324</v>
       </c>
       <c r="L4">
-        <v>0.76</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5895,10 +5895,10 @@
         <v>-8.118</v>
       </c>
       <c r="K5">
-        <v>-1.045</v>
+        <v>-1.353</v>
       </c>
       <c r="L5">
-        <v>0.298</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5933,10 +5933,10 @@
         <v>-13.412</v>
       </c>
       <c r="K6">
-        <v>-1.672</v>
+        <v>-1.473</v>
       </c>
       <c r="L6">
-        <v>0.097</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5971,10 +5971,10 @@
         <v>-8.185</v>
       </c>
       <c r="K7">
-        <v>-0.955</v>
+        <v>-0.981</v>
       </c>
       <c r="L7">
-        <v>0.342</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6009,10 +6009,10 @@
         <v>-3.621</v>
       </c>
       <c r="K8">
-        <v>-1.371</v>
+        <v>-1.401</v>
       </c>
       <c r="L8">
-        <v>0.173</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6047,10 +6047,10 @@
         <v>-2.917</v>
       </c>
       <c r="K9">
-        <v>-1.134</v>
+        <v>-1.575</v>
       </c>
       <c r="L9">
-        <v>0.259</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6085,10 +6085,10 @@
         <v>1.017</v>
       </c>
       <c r="K10">
-        <v>0.319</v>
+        <v>0.37</v>
       </c>
       <c r="L10">
-        <v>0.75</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6123,10 +6123,10 @@
         <v>4.075</v>
       </c>
       <c r="K11">
-        <v>1.211</v>
+        <v>1.43</v>
       </c>
       <c r="L11">
-        <v>0.228</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6161,10 +6161,10 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>1.729</v>
+        <v>1.533</v>
       </c>
       <c r="L12">
-        <v>0.08699999999999999</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6199,10 +6199,10 @@
         <v>3.343</v>
       </c>
       <c r="K13">
-        <v>0.91</v>
+        <v>0.897</v>
       </c>
       <c r="L13">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6237,10 +6237,10 @@
         <v>0.057</v>
       </c>
       <c r="K14">
-        <v>1.254</v>
+        <v>1.466</v>
       </c>
       <c r="L14">
-        <v>0.212</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6275,10 +6275,10 @@
         <v>0.012</v>
       </c>
       <c r="K15">
-        <v>0.249</v>
+        <v>0.205</v>
       </c>
       <c r="L15">
-        <v>0.804</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6313,10 +6313,10 @@
         <v>0.015</v>
       </c>
       <c r="K16">
-        <v>0.26</v>
+        <v>0.234</v>
       </c>
       <c r="L16">
-        <v>0.796</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6351,10 +6351,10 @@
         <v>-0.018</v>
       </c>
       <c r="K17">
-        <v>-0.217</v>
+        <v>-0.174</v>
       </c>
       <c r="L17">
-        <v>0.828</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6389,10 +6389,10 @@
         <v>-0.081</v>
       </c>
       <c r="K18">
-        <v>-0.872</v>
+        <v>-0.897</v>
       </c>
       <c r="L18">
-        <v>0.385</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6427,10 +6427,10 @@
         <v>0.141</v>
       </c>
       <c r="K19">
-        <v>1.598</v>
+        <v>1.304</v>
       </c>
       <c r="L19">
-        <v>0.113</v>
+        <v>0.192</v>
       </c>
     </row>
   </sheetData>
@@ -6516,10 +6516,10 @@
         <v>9.353</v>
       </c>
       <c r="I2">
-        <v>2.32</v>
+        <v>2.196</v>
       </c>
       <c r="J2">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6548,10 +6548,10 @@
         <v>2.569</v>
       </c>
       <c r="I3">
-        <v>0.789</v>
+        <v>1.179</v>
       </c>
       <c r="J3">
-        <v>0.432</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6580,10 +6580,10 @@
         <v>-4.774</v>
       </c>
       <c r="I4">
-        <v>-0.985</v>
+        <v>-0.965</v>
       </c>
       <c r="J4">
-        <v>0.328</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6612,10 +6612,10 @@
         <v>-13.191</v>
       </c>
       <c r="I5">
-        <v>-2.291</v>
+        <v>-2.71</v>
       </c>
       <c r="J5">
-        <v>0.025</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6644,10 +6644,10 @@
         <v>-4.188</v>
       </c>
       <c r="I6">
-        <v>-0.777</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J6">
-        <v>0.439</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6676,10 +6676,10 @@
         <v>-0.551</v>
       </c>
       <c r="I7">
-        <v>-0.102</v>
+        <v>-0.092</v>
       </c>
       <c r="J7">
-        <v>0.919</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6708,10 +6708,10 @@
         <v>-4.514</v>
       </c>
       <c r="I8">
-        <v>-2.297</v>
+        <v>-2.49</v>
       </c>
       <c r="J8">
-        <v>0.024</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6740,10 +6740,10 @@
         <v>-1.206</v>
       </c>
       <c r="I9">
-        <v>-0.68</v>
+        <v>-1.016</v>
       </c>
       <c r="J9">
-        <v>0.499</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6772,10 +6772,10 @@
         <v>2.136</v>
       </c>
       <c r="I10">
-        <v>0.964</v>
+        <v>1.101</v>
       </c>
       <c r="J10">
-        <v>0.338</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6804,10 +6804,10 @@
         <v>6.71</v>
       </c>
       <c r="I11">
-        <v>2.78</v>
+        <v>3.926</v>
       </c>
       <c r="J11">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6836,10 +6836,10 @@
         <v>2.307</v>
       </c>
       <c r="I12">
-        <v>0.998</v>
+        <v>1.163</v>
       </c>
       <c r="J12">
-        <v>0.321</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6868,10 +6868,10 @@
         <v>0.29</v>
       </c>
       <c r="I13">
-        <v>0.129</v>
+        <v>0.112</v>
       </c>
       <c r="J13">
-        <v>0.897</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6900,10 +6900,10 @@
         <v>0.037</v>
       </c>
       <c r="I14">
-        <v>1.133</v>
+        <v>1.589</v>
       </c>
       <c r="J14">
-        <v>0.261</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6932,10 +6932,10 @@
         <v>0.018</v>
       </c>
       <c r="I15">
-        <v>0.537</v>
+        <v>0.673</v>
       </c>
       <c r="J15">
-        <v>0.593</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6964,7 +6964,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="J16">
         <v>0.793</v>
@@ -6996,10 +6996,10 @@
         <v>0.051</v>
       </c>
       <c r="I17">
-        <v>0.761</v>
+        <v>0.95</v>
       </c>
       <c r="J17">
-        <v>0.449</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7028,10 +7028,10 @@
         <v>-0.117</v>
       </c>
       <c r="I18">
-        <v>-1.767</v>
+        <v>-2.028</v>
       </c>
       <c r="J18">
-        <v>0.081</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7060,10 +7060,10 @@
         <v>-0.016</v>
       </c>
       <c r="I19">
-        <v>-0.232</v>
+        <v>-0.219</v>
       </c>
       <c r="J19">
-        <v>0.8169999999999999</v>
+        <v>0.826</v>
       </c>
     </row>
   </sheetData>
@@ -7156,7 +7156,7 @@
         <v>11.884</v>
       </c>
       <c r="J2">
-        <v>2.357</v>
+        <v>2.31</v>
       </c>
       <c r="K2">
         <v>0.021</v>
@@ -7191,10 +7191,10 @@
         <v>3.15</v>
       </c>
       <c r="J3">
-        <v>0.773</v>
+        <v>0.963</v>
       </c>
       <c r="K3">
-        <v>0.442</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7226,10 +7226,10 @@
         <v>-0.888</v>
       </c>
       <c r="J4">
-        <v>-0.145</v>
+        <v>-0.118</v>
       </c>
       <c r="K4">
-        <v>0.885</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7261,10 +7261,10 @@
         <v>-14.212</v>
       </c>
       <c r="J5">
-        <v>-1.955</v>
+        <v>-2.374</v>
       </c>
       <c r="K5">
-        <v>0.054</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7296,10 +7296,10 @@
         <v>-7.78</v>
       </c>
       <c r="J6">
-        <v>-1.159</v>
+        <v>-1.049</v>
       </c>
       <c r="K6">
-        <v>0.25</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7331,10 +7331,10 @@
         <v>-5.879</v>
       </c>
       <c r="J7">
-        <v>-0.871</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="K7">
-        <v>0.386</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7366,10 +7366,10 @@
         <v>-6.332</v>
       </c>
       <c r="J8">
-        <v>-2.597</v>
+        <v>-2.628</v>
       </c>
       <c r="K8">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7401,10 +7401,10 @@
         <v>-1.947</v>
       </c>
       <c r="J9">
-        <v>-0.879</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="K9">
-        <v>0.382</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7436,10 +7436,10 @@
         <v>0.336</v>
       </c>
       <c r="J10">
-        <v>0.12</v>
+        <v>0.106</v>
       </c>
       <c r="K10">
-        <v>0.904</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7471,10 +7471,10 @@
         <v>7.133</v>
       </c>
       <c r="J11">
-        <v>2.33</v>
+        <v>3.224</v>
       </c>
       <c r="K11">
-        <v>0.022</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7506,10 +7506,10 @@
         <v>4.222</v>
       </c>
       <c r="J12">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="K12">
-        <v>0.145</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7541,10 +7541,10 @@
         <v>2.278</v>
       </c>
       <c r="J13">
-        <v>0.8159999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="K13">
-        <v>0.417</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7576,10 +7576,10 @@
         <v>0.038</v>
       </c>
       <c r="J14">
-        <v>0.923</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>0.359</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7611,10 +7611,10 @@
         <v>0.003</v>
       </c>
       <c r="J15">
-        <v>0.064</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K15">
-        <v>0.949</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7646,10 +7646,10 @@
         <v>-0.01</v>
       </c>
       <c r="J16">
-        <v>-0.229</v>
+        <v>-0.233</v>
       </c>
       <c r="K16">
-        <v>0.819</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7681,10 +7681,10 @@
         <v>-0.048</v>
       </c>
       <c r="J17">
-        <v>-0.572</v>
+        <v>-0.697</v>
       </c>
       <c r="K17">
-        <v>0.569</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7716,10 +7716,10 @@
         <v>-0.177</v>
       </c>
       <c r="J18">
-        <v>-2.145</v>
+        <v>-2.698</v>
       </c>
       <c r="K18">
-        <v>0.035</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7751,10 +7751,10 @@
         <v>-0.022</v>
       </c>
       <c r="J19">
-        <v>-0.262</v>
+        <v>-0.327</v>
       </c>
       <c r="K19">
-        <v>0.794</v>
+        <v>0.743</v>
       </c>
     </row>
   </sheetData>
@@ -7854,10 +7854,10 @@
         <v>11.275</v>
       </c>
       <c r="K2">
-        <v>2.029</v>
+        <v>3.008</v>
       </c>
       <c r="L2">
-        <v>0.046</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7892,10 +7892,10 @@
         <v>7.706</v>
       </c>
       <c r="K3">
-        <v>1.757</v>
+        <v>2.196</v>
       </c>
       <c r="L3">
-        <v>0.083</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -7930,10 +7930,10 @@
         <v>-2.851</v>
       </c>
       <c r="K4">
-        <v>-0.428</v>
+        <v>-0.395</v>
       </c>
       <c r="L4">
-        <v>0.67</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7968,10 +7968,10 @@
         <v>-14.09</v>
       </c>
       <c r="K5">
-        <v>-1.766</v>
+        <v>-2.012</v>
       </c>
       <c r="L5">
-        <v>0.081</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8006,10 +8006,10 @@
         <v>-10.687</v>
       </c>
       <c r="K6">
-        <v>-1.463</v>
+        <v>-1.269</v>
       </c>
       <c r="L6">
-        <v>0.147</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8044,10 +8044,10 @@
         <v>-10.035</v>
       </c>
       <c r="K7">
-        <v>-1.369</v>
+        <v>-1.074</v>
       </c>
       <c r="L7">
-        <v>0.175</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8082,10 +8082,10 @@
         <v>-5.415</v>
       </c>
       <c r="K8">
-        <v>-1.999</v>
+        <v>-2.681</v>
       </c>
       <c r="L8">
-        <v>0.049</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8120,10 +8120,10 @@
         <v>-4.548</v>
       </c>
       <c r="K9">
-        <v>-1.911</v>
+        <v>-2.263</v>
       </c>
       <c r="L9">
-        <v>0.06</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8158,10 +8158,10 @@
         <v>1.249</v>
       </c>
       <c r="K10">
-        <v>0.41</v>
+        <v>0.422</v>
       </c>
       <c r="L10">
-        <v>0.6830000000000001</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8196,10 +8196,10 @@
         <v>7.393</v>
       </c>
       <c r="K11">
-        <v>2.201</v>
+        <v>2.757</v>
       </c>
       <c r="L11">
-        <v>0.031</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8234,10 +8234,10 @@
         <v>5.057</v>
       </c>
       <c r="K12">
-        <v>1.615</v>
+        <v>1.587</v>
       </c>
       <c r="L12">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8272,10 +8272,10 @@
         <v>3.79</v>
       </c>
       <c r="K13">
-        <v>1.248</v>
+        <v>0.962</v>
       </c>
       <c r="L13">
-        <v>0.215</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8310,10 +8310,10 @@
         <v>0.02</v>
       </c>
       <c r="K14">
-        <v>0.441</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="L14">
-        <v>0.66</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8348,10 +8348,10 @@
         <v>-0.034</v>
       </c>
       <c r="K15">
-        <v>-0.758</v>
+        <v>-0.761</v>
       </c>
       <c r="L15">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8386,10 +8386,10 @@
         <v>-0.02</v>
       </c>
       <c r="K16">
-        <v>-0.42</v>
+        <v>-0.389</v>
       </c>
       <c r="L16">
-        <v>0.676</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8424,10 +8424,10 @@
         <v>-0.11</v>
       </c>
       <c r="K17">
-        <v>-1.209</v>
+        <v>-1.303</v>
       </c>
       <c r="L17">
-        <v>0.23</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8462,10 +8462,10 @@
         <v>-0.164</v>
       </c>
       <c r="K18">
-        <v>-1.804</v>
+        <v>-1.882</v>
       </c>
       <c r="L18">
-        <v>0.075</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8500,10 +8500,10 @@
         <v>0.046</v>
       </c>
       <c r="K19">
-        <v>0.505</v>
+        <v>0.529</v>
       </c>
       <c r="L19">
-        <v>0.615</v>
+        <v>0.597</v>
       </c>
     </row>
   </sheetData>
@@ -8603,10 +8603,10 @@
         <v>10.318</v>
       </c>
       <c r="K2">
-        <v>1.585</v>
+        <v>2.602</v>
       </c>
       <c r="L2">
-        <v>0.117</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8641,10 +8641,10 @@
         <v>8.548</v>
       </c>
       <c r="K3">
-        <v>1.677</v>
+        <v>1.871</v>
       </c>
       <c r="L3">
-        <v>0.097</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8679,10 +8679,10 @@
         <v>-0.669</v>
       </c>
       <c r="K4">
-        <v>-0.08599999999999999</v>
+        <v>-0.075</v>
       </c>
       <c r="L4">
-        <v>0.931</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8717,10 +8717,10 @@
         <v>-16.399</v>
       </c>
       <c r="K5">
-        <v>-1.772</v>
+        <v>-1.76</v>
       </c>
       <c r="L5">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8755,10 +8755,10 @@
         <v>-13.261</v>
       </c>
       <c r="K6">
-        <v>-1.569</v>
+        <v>-1.29</v>
       </c>
       <c r="L6">
-        <v>0.121</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8793,10 +8793,10 @@
         <v>-12.874</v>
       </c>
       <c r="K7">
-        <v>-1.519</v>
+        <v>-1.258</v>
       </c>
       <c r="L7">
-        <v>0.133</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8831,10 +8831,10 @@
         <v>-4.624</v>
       </c>
       <c r="K8">
-        <v>-1.455</v>
+        <v>-2.581</v>
       </c>
       <c r="L8">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8869,10 +8869,10 @@
         <v>-4.571</v>
       </c>
       <c r="K9">
-        <v>-1.646</v>
+        <v>-1.873</v>
       </c>
       <c r="L9">
-        <v>0.104</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8907,10 +8907,10 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="K10">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="L10">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8945,10 +8945,10 @@
         <v>7.39</v>
       </c>
       <c r="K11">
-        <v>1.883</v>
+        <v>1.695</v>
       </c>
       <c r="L11">
-        <v>0.063</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8983,10 +8983,10 @@
         <v>6.04</v>
       </c>
       <c r="K12">
-        <v>1.665</v>
+        <v>1.536</v>
       </c>
       <c r="L12">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9021,10 +9021,10 @@
         <v>4.598</v>
       </c>
       <c r="K13">
-        <v>1.307</v>
+        <v>1.046</v>
       </c>
       <c r="L13">
-        <v>0.195</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9059,10 +9059,10 @@
         <v>0.073</v>
       </c>
       <c r="K14">
-        <v>1.42</v>
+        <v>1.751</v>
       </c>
       <c r="L14">
-        <v>0.159</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9097,10 +9097,10 @@
         <v>0.001</v>
       </c>
       <c r="K15">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="L15">
-        <v>0.981</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9135,10 +9135,10 @@
         <v>0.032</v>
       </c>
       <c r="K16">
-        <v>0.575</v>
+        <v>0.502</v>
       </c>
       <c r="L16">
-        <v>0.5669999999999999</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9173,7 +9173,7 @@
         <v>-0.075</v>
       </c>
       <c r="K17">
-        <v>-0.707</v>
+        <v>-0.705</v>
       </c>
       <c r="L17">
         <v>0.481</v>
@@ -9211,10 +9211,10 @@
         <v>-0.121</v>
       </c>
       <c r="K18">
-        <v>-1.138</v>
+        <v>-0.998</v>
       </c>
       <c r="L18">
-        <v>0.258</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9249,10 +9249,10 @@
         <v>0.145</v>
       </c>
       <c r="K19">
-        <v>1.385</v>
+        <v>1.142</v>
       </c>
       <c r="L19">
-        <v>0.17</v>
+        <v>0.253</v>
       </c>
     </row>
   </sheetData>
@@ -9338,10 +9338,10 @@
         <v>3.483</v>
       </c>
       <c r="I2">
-        <v>0.831</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J2">
-        <v>0.407</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9370,10 +9370,10 @@
         <v>-0.023</v>
       </c>
       <c r="I3">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="J3">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9402,10 +9402,10 @@
         <v>3.096</v>
       </c>
       <c r="I4">
+        <v>0.527</v>
+      </c>
+      <c r="J4">
         <v>0.598</v>
-      </c>
-      <c r="J4">
-        <v>0.551</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9434,10 +9434,10 @@
         <v>-3.665</v>
       </c>
       <c r="I5">
-        <v>-0.64</v>
+        <v>-0.458</v>
       </c>
       <c r="J5">
-        <v>0.523</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9466,10 +9466,10 @@
         <v>-5.531</v>
       </c>
       <c r="I6">
-        <v>-0.923</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="J6">
-        <v>0.357</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9498,10 +9498,10 @@
         <v>1.56</v>
       </c>
       <c r="I7">
-        <v>0.259</v>
+        <v>0.272</v>
       </c>
       <c r="J7">
-        <v>0.796</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9530,10 +9530,10 @@
         <v>-3.292</v>
       </c>
       <c r="I8">
-        <v>-1.698</v>
+        <v>-1.839</v>
       </c>
       <c r="J8">
-        <v>0.091</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9562,10 +9562,10 @@
         <v>-1.471</v>
       </c>
       <c r="I9">
-        <v>-0.788</v>
+        <v>-0.631</v>
       </c>
       <c r="J9">
-        <v>0.432</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9594,10 +9594,10 @@
         <v>-2.405</v>
       </c>
       <c r="I10">
-        <v>-1.061</v>
+        <v>-0.955</v>
       </c>
       <c r="J10">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9626,10 +9626,10 @@
         <v>1.701</v>
       </c>
       <c r="I11">
-        <v>0.702</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J11">
-        <v>0.484</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9658,10 +9658,10 @@
         <v>2.617</v>
       </c>
       <c r="I12">
-        <v>1.037</v>
+        <v>1.096</v>
       </c>
       <c r="J12">
-        <v>0.301</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9690,10 +9690,10 @@
         <v>-0.983</v>
       </c>
       <c r="I13">
-        <v>-0.386</v>
+        <v>-0.384</v>
       </c>
       <c r="J13">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9722,10 +9722,10 @@
         <v>-0.012</v>
       </c>
       <c r="I14">
-        <v>-0.359</v>
+        <v>-0.361</v>
       </c>
       <c r="J14">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9754,10 +9754,10 @@
         <v>-0.034</v>
       </c>
       <c r="I15">
-        <v>-1.042</v>
+        <v>-0.865</v>
       </c>
       <c r="J15">
-        <v>0.299</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9786,10 +9786,10 @@
         <v>-0.122</v>
       </c>
       <c r="I16">
-        <v>-2.527</v>
+        <v>-2.471</v>
       </c>
       <c r="J16">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9818,10 +9818,10 @@
         <v>-0.059</v>
       </c>
       <c r="I17">
-        <v>-0.948</v>
+        <v>-0.914</v>
       </c>
       <c r="J17">
-        <v>0.345</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9850,10 +9850,10 @@
         <v>-0.141</v>
       </c>
       <c r="I18">
-        <v>-2.117</v>
+        <v>-2.471</v>
       </c>
       <c r="J18">
-        <v>0.036</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9882,10 +9882,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>-0.132</v>
+        <v>-0.12</v>
       </c>
       <c r="J19">
-        <v>0.895</v>
+        <v>0.904</v>
       </c>
     </row>
   </sheetData>
@@ -9971,10 +9971,10 @@
         <v>4.875</v>
       </c>
       <c r="I2">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="J2">
-        <v>0.348</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10003,10 +10003,10 @@
         <v>2.614</v>
       </c>
       <c r="I3">
-        <v>0.549</v>
+        <v>0.44</v>
       </c>
       <c r="J3">
-        <v>0.584</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10035,10 +10035,10 @@
         <v>1.076</v>
       </c>
       <c r="I4">
-        <v>0.168</v>
+        <v>0.147</v>
       </c>
       <c r="J4">
-        <v>0.867</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10067,10 +10067,10 @@
         <v>-8.196999999999999</v>
       </c>
       <c r="I5">
-        <v>-1.159</v>
+        <v>-0.972</v>
       </c>
       <c r="J5">
-        <v>0.248</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10099,10 +10099,10 @@
         <v>-7.512</v>
       </c>
       <c r="I6">
-        <v>-1.013</v>
+        <v>-0.83</v>
       </c>
       <c r="J6">
-        <v>0.312</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10131,10 +10131,10 @@
         <v>-3.082</v>
       </c>
       <c r="I7">
-        <v>-0.414</v>
+        <v>-0.433</v>
       </c>
       <c r="J7">
-        <v>0.68</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10163,10 +10163,10 @@
         <v>-3.462</v>
       </c>
       <c r="I8">
-        <v>-1.439</v>
+        <v>-1.3</v>
       </c>
       <c r="J8">
-        <v>0.152</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10195,10 +10195,10 @@
         <v>-3.039</v>
       </c>
       <c r="I9">
-        <v>-1.319</v>
+        <v>-1.03</v>
       </c>
       <c r="J9">
-        <v>0.189</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10227,10 +10227,10 @@
         <v>-1.264</v>
       </c>
       <c r="I10">
-        <v>-0.449</v>
+        <v>-0.406</v>
       </c>
       <c r="J10">
-        <v>0.654</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10259,10 +10259,10 @@
         <v>3.117</v>
       </c>
       <c r="I11">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="J11">
-        <v>0.3</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10291,10 +10291,10 @@
         <v>3.694</v>
       </c>
       <c r="I12">
-        <v>1.184</v>
+        <v>1.035</v>
       </c>
       <c r="J12">
-        <v>0.238</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10323,10 +10323,10 @@
         <v>1.068</v>
       </c>
       <c r="I13">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="J13">
-        <v>0.735</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10355,10 +10355,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-0.482</v>
+        <v>-0.625</v>
       </c>
       <c r="J14">
-        <v>0.63</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10387,10 +10387,10 @@
         <v>-0.095</v>
       </c>
       <c r="I15">
-        <v>-2.356</v>
+        <v>-1.842</v>
       </c>
       <c r="J15">
-        <v>0.02</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10419,10 +10419,10 @@
         <v>-0.165</v>
       </c>
       <c r="I16">
-        <v>-2.78</v>
+        <v>-2.7</v>
       </c>
       <c r="J16">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10451,10 +10451,10 @@
         <v>-0.059</v>
       </c>
       <c r="I17">
-        <v>-0.762</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="J17">
-        <v>0.447</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10483,10 +10483,10 @@
         <v>-0.159</v>
       </c>
       <c r="I18">
-        <v>-1.924</v>
+        <v>-2.508</v>
       </c>
       <c r="J18">
-        <v>0.056</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10515,10 +10515,10 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I19">
-        <v>1.023</v>
+        <v>1.104</v>
       </c>
       <c r="J19">
-        <v>0.308</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -10604,10 +10604,10 @@
         <v>4.395</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.672</v>
       </c>
       <c r="J2">
-        <v>0.43</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10636,10 +10636,10 @@
         <v>4.956</v>
       </c>
       <c r="I3">
-        <v>0.972</v>
+        <v>1.11</v>
       </c>
       <c r="J3">
-        <v>0.332</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10668,10 +10668,10 @@
         <v>0.041</v>
       </c>
       <c r="I4">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="J4">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10700,10 +10700,10 @@
         <v>-8.805999999999999</v>
       </c>
       <c r="I5">
-        <v>-1.162</v>
+        <v>-1.243</v>
       </c>
       <c r="J5">
-        <v>0.247</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10732,10 +10732,10 @@
         <v>-7.628</v>
       </c>
       <c r="I6">
-        <v>-0.96</v>
+        <v>-0.915</v>
       </c>
       <c r="J6">
-        <v>0.338</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10764,10 +10764,10 @@
         <v>-3.347</v>
       </c>
       <c r="I7">
-        <v>-0.419</v>
+        <v>-0.481</v>
       </c>
       <c r="J7">
-        <v>0.676</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10796,10 +10796,10 @@
         <v>-2.68</v>
       </c>
       <c r="I8">
-        <v>-1.036</v>
+        <v>-0.907</v>
       </c>
       <c r="J8">
-        <v>0.302</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10828,10 +10828,10 @@
         <v>-3.645</v>
       </c>
       <c r="I9">
-        <v>-1.478</v>
+        <v>-1.536</v>
       </c>
       <c r="J9">
-        <v>0.141</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10860,10 +10860,10 @@
         <v>-1.333</v>
       </c>
       <c r="I10">
-        <v>-0.442</v>
+        <v>-0.395</v>
       </c>
       <c r="J10">
-        <v>0.659</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10892,10 +10892,10 @@
         <v>3.143</v>
       </c>
       <c r="I11">
-        <v>0.978</v>
+        <v>0.964</v>
       </c>
       <c r="J11">
-        <v>0.329</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10924,10 +10924,10 @@
         <v>3.749</v>
       </c>
       <c r="I12">
-        <v>1.121</v>
+        <v>1.157</v>
       </c>
       <c r="J12">
-        <v>0.264</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10956,10 +10956,10 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="I13">
-        <v>0.279</v>
+        <v>0.336</v>
       </c>
       <c r="J13">
-        <v>0.781</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10988,10 +10988,10 @@
         <v>0.013</v>
       </c>
       <c r="I14">
-        <v>0.29</v>
+        <v>0.323</v>
       </c>
       <c r="J14">
-        <v>0.772</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11020,10 +11020,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="I15">
-        <v>-1.652</v>
+        <v>-1.48</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11052,10 +11052,10 @@
         <v>-0.116</v>
       </c>
       <c r="I16">
-        <v>-1.805</v>
+        <v>-1.401</v>
       </c>
       <c r="J16">
-        <v>0.073</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11084,10 +11084,10 @@
         <v>-0.023</v>
       </c>
       <c r="I17">
-        <v>-0.274</v>
+        <v>-0.248</v>
       </c>
       <c r="J17">
-        <v>0.785</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11116,10 +11116,10 @@
         <v>-0.148</v>
       </c>
       <c r="I18">
-        <v>-1.664</v>
+        <v>-2.026</v>
       </c>
       <c r="J18">
-        <v>0.098</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11148,10 +11148,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="I19">
-        <v>0.97</v>
+        <v>1.003</v>
       </c>
       <c r="J19">
-        <v>0.334</v>
+        <v>0.316</v>
       </c>
     </row>
   </sheetData>
@@ -11237,10 +11237,10 @@
         <v>1.536</v>
       </c>
       <c r="I2">
-        <v>0.444</v>
+        <v>0.521</v>
       </c>
       <c r="J2">
-        <v>0.658</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11269,10 +11269,10 @@
         <v>1.513</v>
       </c>
       <c r="I3">
-        <v>0.488</v>
+        <v>0.526</v>
       </c>
       <c r="J3">
-        <v>0.627</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11301,10 +11301,10 @@
         <v>-0.955</v>
       </c>
       <c r="I4">
-        <v>-0.224</v>
+        <v>-0.216</v>
       </c>
       <c r="J4">
-        <v>0.823</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11333,10 +11333,10 @@
         <v>-8.532999999999999</v>
       </c>
       <c r="I5">
-        <v>-1.859</v>
+        <v>-1.551</v>
       </c>
       <c r="J5">
-        <v>0.065</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11365,10 +11365,10 @@
         <v>-3.524</v>
       </c>
       <c r="I6">
-        <v>-0.714</v>
+        <v>-0.585</v>
       </c>
       <c r="J6">
-        <v>0.477</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11397,10 +11397,10 @@
         <v>0.343</v>
       </c>
       <c r="I7">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="J7">
-        <v>0.947</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11429,10 +11429,10 @@
         <v>-1.105</v>
       </c>
       <c r="I8">
-        <v>-0.68</v>
+        <v>-0.712</v>
       </c>
       <c r="J8">
-        <v>0.498</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11461,10 +11461,10 @@
         <v>-0.589</v>
       </c>
       <c r="I9">
-        <v>-0.374</v>
+        <v>-0.454</v>
       </c>
       <c r="J9">
-        <v>0.709</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11493,10 +11493,10 @@
         <v>0.245</v>
       </c>
       <c r="I10">
-        <v>0.129</v>
+        <v>0.125</v>
       </c>
       <c r="J10">
-        <v>0.898</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11525,10 +11525,10 @@
         <v>3.876</v>
       </c>
       <c r="I11">
-        <v>1.931</v>
+        <v>1.82</v>
       </c>
       <c r="J11">
-        <v>0.056</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11557,10 +11557,10 @@
         <v>1.489</v>
       </c>
       <c r="I12">
-        <v>0.698</v>
+        <v>0.602</v>
       </c>
       <c r="J12">
-        <v>0.486</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11589,10 +11589,10 @@
         <v>-0.395</v>
       </c>
       <c r="I13">
-        <v>-0.181</v>
+        <v>-0.189</v>
       </c>
       <c r="J13">
-        <v>0.856</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11621,10 +11621,10 @@
         <v>0.011</v>
       </c>
       <c r="I14">
-        <v>0.39</v>
+        <v>0.421</v>
       </c>
       <c r="J14">
-        <v>0.697</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11653,10 +11653,10 @@
         <v>-0.01</v>
       </c>
       <c r="I15">
-        <v>-0.363</v>
+        <v>-0.342</v>
       </c>
       <c r="J15">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11685,10 +11685,10 @@
         <v>-0.042</v>
       </c>
       <c r="I16">
-        <v>-1.11</v>
+        <v>-0.882</v>
       </c>
       <c r="J16">
-        <v>0.269</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11717,10 +11717,10 @@
         <v>0.034</v>
       </c>
       <c r="I17">
-        <v>0.6830000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="J17">
-        <v>0.496</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11749,10 +11749,10 @@
         <v>-0.061</v>
       </c>
       <c r="I18">
-        <v>-1.106</v>
+        <v>-1.205</v>
       </c>
       <c r="J18">
-        <v>0.271</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11781,10 +11781,10 @@
         <v>-0.011</v>
       </c>
       <c r="I19">
-        <v>-0.2</v>
+        <v>-0.256</v>
       </c>
       <c r="J19">
-        <v>0.842</v>
+        <v>0.798</v>
       </c>
     </row>
   </sheetData>
@@ -11877,10 +11877,10 @@
         <v>-0.356</v>
       </c>
       <c r="J2">
-        <v>-0.083</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9340000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -11912,10 +11912,10 @@
         <v>-1.02</v>
       </c>
       <c r="J3">
-        <v>-0.266</v>
+        <v>-0.294</v>
       </c>
       <c r="K3">
-        <v>0.791</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -11947,10 +11947,10 @@
         <v>3.064</v>
       </c>
       <c r="J4">
-        <v>0.583</v>
+        <v>0.577</v>
       </c>
       <c r="K4">
-        <v>0.5610000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -11982,10 +11982,10 @@
         <v>-8.122999999999999</v>
       </c>
       <c r="J5">
-        <v>-1.424</v>
+        <v>-1.543</v>
       </c>
       <c r="K5">
-        <v>0.157</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12017,10 +12017,10 @@
         <v>-2.675</v>
       </c>
       <c r="J6">
-        <v>-0.438</v>
+        <v>-0.406</v>
       </c>
       <c r="K6">
-        <v>0.662</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12052,10 +12052,10 @@
         <v>-0.518</v>
       </c>
       <c r="J7">
-        <v>-0.082</v>
+        <v>-0.112</v>
       </c>
       <c r="K7">
-        <v>0.9350000000000001</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12087,10 +12087,10 @@
         <v>-0.846</v>
       </c>
       <c r="J8">
-        <v>-0.421</v>
+        <v>-0.353</v>
       </c>
       <c r="K8">
-        <v>0.675</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12122,10 +12122,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="J9">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="K9">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12157,10 +12157,10 @@
         <v>-1.627</v>
       </c>
       <c r="J10">
-        <v>-0.695</v>
+        <v>-0.657</v>
       </c>
       <c r="K10">
-        <v>0.488</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12192,10 +12192,10 @@
         <v>3.356</v>
       </c>
       <c r="J11">
-        <v>1.343</v>
+        <v>1.491</v>
       </c>
       <c r="K11">
-        <v>0.181</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12227,10 +12227,10 @@
         <v>1.297</v>
       </c>
       <c r="J12">
-        <v>0.492</v>
+        <v>0.422</v>
       </c>
       <c r="K12">
-        <v>0.624</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12262,10 +12262,10 @@
         <v>-0.336</v>
       </c>
       <c r="J13">
-        <v>-0.125</v>
+        <v>-0.159</v>
       </c>
       <c r="K13">
-        <v>0.901</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12297,10 +12297,10 @@
         <v>-0.004</v>
       </c>
       <c r="J14">
-        <v>-0.111</v>
+        <v>-0.132</v>
       </c>
       <c r="K14">
-        <v>0.912</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12332,10 +12332,10 @@
         <v>-0.008</v>
       </c>
       <c r="J15">
-        <v>-0.243</v>
+        <v>-0.263</v>
       </c>
       <c r="K15">
-        <v>0.8090000000000001</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12367,10 +12367,10 @@
         <v>-0.036</v>
       </c>
       <c r="J16">
-        <v>-0.77</v>
+        <v>-0.671</v>
       </c>
       <c r="K16">
-        <v>0.442</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -12402,10 +12402,10 @@
         <v>0.002</v>
       </c>
       <c r="J17">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="K17">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12437,10 +12437,10 @@
         <v>-0.138</v>
       </c>
       <c r="J18">
-        <v>-2.046</v>
+        <v>-2.481</v>
       </c>
       <c r="K18">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12472,10 +12472,10 @@
         <v>0.003</v>
       </c>
       <c r="J19">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="K19">
-        <v>0.972</v>
+        <v>0.964</v>
       </c>
     </row>
   </sheetData>
@@ -12568,10 +12568,10 @@
         <v>0.774</v>
       </c>
       <c r="J2">
-        <v>0.151</v>
+        <v>0.168</v>
       </c>
       <c r="K2">
-        <v>0.88</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12603,10 +12603,10 @@
         <v>2.631</v>
       </c>
       <c r="J3">
-        <v>0.574</v>
+        <v>0.696</v>
       </c>
       <c r="K3">
-        <v>0.5669999999999999</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12638,10 +12638,10 @@
         <v>3.926</v>
       </c>
       <c r="J4">
-        <v>0.625</v>
+        <v>0.544</v>
       </c>
       <c r="K4">
-        <v>0.533</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12673,10 +12673,10 @@
         <v>-7.874</v>
       </c>
       <c r="J5">
-        <v>-1.152</v>
+        <v>-1.459</v>
       </c>
       <c r="K5">
-        <v>0.251</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12708,10 +12708,10 @@
         <v>-4.952</v>
       </c>
       <c r="J6">
-        <v>-0.679</v>
+        <v>-0.503</v>
       </c>
       <c r="K6">
-        <v>0.498</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12743,10 +12743,10 @@
         <v>-2.8</v>
       </c>
       <c r="J7">
-        <v>-0.369</v>
+        <v>-0.438</v>
       </c>
       <c r="K7">
-        <v>0.712</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12778,10 +12778,10 @@
         <v>-1.011</v>
       </c>
       <c r="J8">
-        <v>-0.421</v>
+        <v>-0.346</v>
       </c>
       <c r="K8">
-        <v>0.675</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12813,10 +12813,10 @@
         <v>-1.801</v>
       </c>
       <c r="J9">
-        <v>-0.774</v>
+        <v>-0.862</v>
       </c>
       <c r="K9">
-        <v>0.44</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12848,10 +12848,10 @@
         <v>-1.27</v>
       </c>
       <c r="J10">
-        <v>-0.453</v>
+        <v>-0.395</v>
       </c>
       <c r="K10">
-        <v>0.651</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12883,10 +12883,10 @@
         <v>3.374</v>
       </c>
       <c r="J11">
-        <v>1.127</v>
+        <v>1.455</v>
       </c>
       <c r="K11">
-        <v>0.262</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12918,10 +12918,10 @@
         <v>2.326</v>
       </c>
       <c r="J12">
-        <v>0.739</v>
+        <v>0.532</v>
       </c>
       <c r="K12">
-        <v>0.461</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12953,10 +12953,10 @@
         <v>0.374</v>
       </c>
       <c r="J13">
-        <v>0.116</v>
+        <v>0.139</v>
       </c>
       <c r="K13">
-        <v>0.908</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -12988,10 +12988,10 @@
         <v>-0.003</v>
       </c>
       <c r="J14">
-        <v>-0.064</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="K14">
-        <v>0.949</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13023,10 +13023,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="J15">
-        <v>-1.726</v>
+        <v>-1.754</v>
       </c>
       <c r="K15">
-        <v>0.08699999999999999</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13058,10 +13058,10 @@
         <v>-0.098</v>
       </c>
       <c r="J16">
-        <v>-1.784</v>
+        <v>-1.168</v>
       </c>
       <c r="K16">
-        <v>0.077</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13093,10 +13093,10 @@
         <v>-0.073</v>
       </c>
       <c r="J17">
-        <v>-1.005</v>
+        <v>-0.882</v>
       </c>
       <c r="K17">
-        <v>0.317</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13128,10 +13128,10 @@
         <v>-0.146</v>
       </c>
       <c r="J18">
-        <v>-1.81</v>
+        <v>-1.957</v>
       </c>
       <c r="K18">
-        <v>0.07199999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13163,10 +13163,10 @@
         <v>0.099</v>
       </c>
       <c r="J19">
-        <v>1.17</v>
+        <v>1.202</v>
       </c>
       <c r="K19">
-        <v>0.244</v>
+        <v>0.229</v>
       </c>
     </row>
   </sheetData>
@@ -13259,10 +13259,10 @@
         <v>-1.446</v>
       </c>
       <c r="J2">
-        <v>-0.267</v>
+        <v>-0.264</v>
       </c>
       <c r="K2">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13294,10 +13294,10 @@
         <v>3.415</v>
       </c>
       <c r="J3">
-        <v>0.704</v>
+        <v>0.907</v>
       </c>
       <c r="K3">
-        <v>0.483</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13329,10 +13329,10 @@
         <v>2.392</v>
       </c>
       <c r="J4">
-        <v>0.359</v>
+        <v>0.301</v>
       </c>
       <c r="K4">
-        <v>0.72</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13364,7 +13364,7 @@
         <v>-10.718</v>
       </c>
       <c r="J5">
-        <v>-1.485</v>
+        <v>-1.475</v>
       </c>
       <c r="K5">
         <v>0.14</v>
@@ -13399,10 +13399,10 @@
         <v>-6.875</v>
       </c>
       <c r="J6">
-        <v>-0.891</v>
+        <v>-0.665</v>
       </c>
       <c r="K6">
-        <v>0.375</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13434,10 +13434,10 @@
         <v>-3.337</v>
       </c>
       <c r="J7">
-        <v>-0.415</v>
+        <v>-0.44</v>
       </c>
       <c r="K7">
-        <v>0.678</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13469,10 +13469,10 @@
         <v>0.595</v>
       </c>
       <c r="J8">
-        <v>0.234</v>
+        <v>0.187</v>
       </c>
       <c r="K8">
-        <v>0.8159999999999999</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13504,10 +13504,10 @@
         <v>-1.647</v>
       </c>
       <c r="J9">
-        <v>-0.668</v>
+        <v>-0.896</v>
       </c>
       <c r="K9">
-        <v>0.505</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13539,10 +13539,10 @@
         <v>-0.611</v>
       </c>
       <c r="J10">
-        <v>-0.206</v>
+        <v>-0.169</v>
       </c>
       <c r="K10">
-        <v>0.837</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13574,10 +13574,10 @@
         <v>3.95</v>
       </c>
       <c r="J11">
-        <v>1.247</v>
+        <v>1.201</v>
       </c>
       <c r="K11">
-        <v>0.214</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13609,10 +13609,10 @@
         <v>2.651</v>
       </c>
       <c r="J12">
-        <v>0.795</v>
+        <v>0.595</v>
       </c>
       <c r="K12">
-        <v>0.428</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13644,10 +13644,10 @@
         <v>0.396</v>
       </c>
       <c r="J13">
-        <v>0.116</v>
+        <v>0.13</v>
       </c>
       <c r="K13">
-        <v>0.908</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13679,10 +13679,10 @@
         <v>0.031</v>
       </c>
       <c r="J14">
-        <v>0.72</v>
+        <v>0.638</v>
       </c>
       <c r="K14">
-        <v>0.473</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13714,10 +13714,10 @@
         <v>-0.029</v>
       </c>
       <c r="J15">
-        <v>-0.674</v>
+        <v>-0.596</v>
       </c>
       <c r="K15">
-        <v>0.501</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13749,10 +13749,10 @@
         <v>-0.058</v>
       </c>
       <c r="J16">
-        <v>-0.989</v>
+        <v>-0.721</v>
       </c>
       <c r="K16">
-        <v>0.324</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13784,10 +13784,10 @@
         <v>-0.001</v>
       </c>
       <c r="J17">
-        <v>-0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="K17">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13819,10 +13819,10 @@
         <v>-0.093</v>
       </c>
       <c r="J18">
-        <v>-1.082</v>
+        <v>-1.03</v>
       </c>
       <c r="K18">
-        <v>0.281</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13854,10 +13854,10 @@
         <v>0.146</v>
       </c>
       <c r="J19">
-        <v>1.632</v>
+        <v>1.36</v>
       </c>
       <c r="K19">
-        <v>0.105</v>
+        <v>0.174</v>
       </c>
     </row>
   </sheetData>
@@ -13943,10 +13943,10 @@
         <v>7.009</v>
       </c>
       <c r="I2">
-        <v>2.012</v>
+        <v>1.964</v>
       </c>
       <c r="J2">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13975,10 +13975,10 @@
         <v>1.835</v>
       </c>
       <c r="I3">
-        <v>0.598</v>
+        <v>0.717</v>
       </c>
       <c r="J3">
-        <v>0.551</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14007,10 +14007,10 @@
         <v>-3.152</v>
       </c>
       <c r="I4">
-        <v>-0.699</v>
+        <v>-0.854</v>
       </c>
       <c r="J4">
-        <v>0.486</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14039,10 +14039,10 @@
         <v>-6.405</v>
       </c>
       <c r="I5">
-        <v>-1.278</v>
+        <v>-1.276</v>
       </c>
       <c r="J5">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14071,10 +14071,10 @@
         <v>-4.448</v>
       </c>
       <c r="I6">
-        <v>-0.85</v>
+        <v>-0.636</v>
       </c>
       <c r="J6">
-        <v>0.397</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14103,10 +14103,10 @@
         <v>1.484</v>
       </c>
       <c r="I7">
-        <v>0.267</v>
+        <v>0.205</v>
       </c>
       <c r="J7">
-        <v>0.79</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14135,10 +14135,10 @@
         <v>-3.533</v>
       </c>
       <c r="I8">
-        <v>-2.092</v>
+        <v>-2.197</v>
       </c>
       <c r="J8">
-        <v>0.039</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14167,10 +14167,10 @@
         <v>-0.505</v>
       </c>
       <c r="I9">
-        <v>-0.302</v>
+        <v>-0.414</v>
       </c>
       <c r="J9">
-        <v>0.764</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14199,10 +14199,10 @@
         <v>1.398</v>
       </c>
       <c r="I10">
-        <v>0.681</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J10">
-        <v>0.498</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14231,10 +14231,10 @@
         <v>3.194</v>
       </c>
       <c r="I11">
-        <v>1.472</v>
+        <v>1.835</v>
       </c>
       <c r="J11">
-        <v>0.144</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14263,10 +14263,10 @@
         <v>2.004</v>
       </c>
       <c r="I12">
-        <v>0.884</v>
+        <v>0.719</v>
       </c>
       <c r="J12">
-        <v>0.378</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14295,10 +14295,10 @@
         <v>-0.299</v>
       </c>
       <c r="I13">
-        <v>-0.126</v>
+        <v>-0.095</v>
       </c>
       <c r="J13">
-        <v>0.9</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14327,10 +14327,10 @@
         <v>0.024</v>
       </c>
       <c r="I14">
-        <v>0.8139999999999999</v>
+        <v>0.917</v>
       </c>
       <c r="J14">
-        <v>0.417</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14359,10 +14359,10 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.019</v>
+        <v>-0.021</v>
       </c>
       <c r="J15">
-        <v>0.985</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14391,10 +14391,10 @@
         <v>-0.015</v>
       </c>
       <c r="I16">
-        <v>-0.394</v>
+        <v>-0.285</v>
       </c>
       <c r="J16">
-        <v>0.694</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14423,10 +14423,10 @@
         <v>0.026</v>
       </c>
       <c r="I17">
-        <v>0.472</v>
+        <v>0.392</v>
       </c>
       <c r="J17">
-        <v>0.638</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14455,10 +14455,10 @@
         <v>-0.068</v>
       </c>
       <c r="I18">
-        <v>-1.146</v>
+        <v>-1.382</v>
       </c>
       <c r="J18">
-        <v>0.254</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14487,10 +14487,10 @@
         <v>-0.029</v>
       </c>
       <c r="I19">
-        <v>-0.499</v>
+        <v>-0.611</v>
       </c>
       <c r="J19">
-        <v>0.619</v>
+        <v>0.541</v>
       </c>
     </row>
   </sheetData>
